--- a/Code/Results/Cases/Case_3_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.72111714257073</v>
+        <v>7.925179770859371</v>
       </c>
       <c r="C2">
-        <v>7.181876504899097</v>
+        <v>5.780391821375774</v>
       </c>
       <c r="D2">
-        <v>5.477896693813774</v>
+        <v>4.443596211984586</v>
       </c>
       <c r="F2">
-        <v>13.34300185896216</v>
+        <v>19.58795638235258</v>
       </c>
       <c r="G2">
-        <v>14.334829315582</v>
+        <v>20.57547636414088</v>
       </c>
       <c r="H2">
-        <v>7.222136124353741</v>
+        <v>12.38124052643509</v>
       </c>
       <c r="I2">
-        <v>10.38894024459513</v>
+        <v>17.45920573582139</v>
       </c>
       <c r="K2">
-        <v>11.49075266639114</v>
+        <v>8.471841746582419</v>
       </c>
       <c r="N2">
-        <v>11.46865072421846</v>
+        <v>16.86580294599075</v>
       </c>
       <c r="O2">
-        <v>10.75700623989259</v>
+        <v>17.72951726136178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.96226205474919</v>
+        <v>7.577721788249709</v>
       </c>
       <c r="C3">
-        <v>6.875173534411523</v>
+        <v>5.653444319448128</v>
       </c>
       <c r="D3">
-        <v>5.200863529865811</v>
+        <v>4.324653435168544</v>
       </c>
       <c r="F3">
-        <v>13.21168716977354</v>
+        <v>19.64220381829719</v>
       </c>
       <c r="G3">
-        <v>14.29281891710114</v>
+        <v>20.67328514877434</v>
       </c>
       <c r="H3">
-        <v>7.307396416125772</v>
+        <v>12.42391561314609</v>
       </c>
       <c r="I3">
-        <v>10.59127083398882</v>
+        <v>17.54402064359958</v>
       </c>
       <c r="K3">
-        <v>10.91088148910045</v>
+        <v>8.205932179077227</v>
       </c>
       <c r="N3">
-        <v>11.5629573068238</v>
+        <v>16.90251082953466</v>
       </c>
       <c r="O3">
-        <v>10.86579663732512</v>
+        <v>17.80530891082829</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.46992481489636</v>
+        <v>7.356420937903089</v>
       </c>
       <c r="C4">
-        <v>6.679231136969721</v>
+        <v>5.573449165194751</v>
       </c>
       <c r="D4">
-        <v>5.022349842084814</v>
+        <v>4.249076428820368</v>
       </c>
       <c r="F4">
-        <v>13.14339535210484</v>
+        <v>19.6806658384917</v>
       </c>
       <c r="G4">
-        <v>14.28753917520525</v>
+        <v>20.74036784554328</v>
       </c>
       <c r="H4">
-        <v>7.363354140678075</v>
+        <v>12.45181086161699</v>
       </c>
       <c r="I4">
-        <v>10.72176885792272</v>
+        <v>17.59913069306899</v>
       </c>
       <c r="K4">
-        <v>10.53753396289109</v>
+        <v>8.036753638461693</v>
       </c>
       <c r="N4">
-        <v>11.62372078225604</v>
+        <v>16.92649702482272</v>
       </c>
       <c r="O4">
-        <v>10.94129995128907</v>
+        <v>17.85532442378621</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.2626991722274</v>
+        <v>7.264357016370989</v>
       </c>
       <c r="C5">
-        <v>6.597538876245343</v>
+        <v>5.540365615358892</v>
       </c>
       <c r="D5">
-        <v>4.947530009870465</v>
+        <v>4.217663963746512</v>
       </c>
       <c r="F5">
-        <v>13.11861874787326</v>
+        <v>19.69763251308434</v>
       </c>
       <c r="G5">
-        <v>14.2903454411571</v>
+        <v>20.76946356024395</v>
       </c>
       <c r="H5">
-        <v>7.387043420123186</v>
+        <v>12.46360451203502</v>
       </c>
       <c r="I5">
-        <v>10.77649007646918</v>
+        <v>17.62235220767446</v>
       </c>
       <c r="K5">
-        <v>10.3811367553444</v>
+        <v>7.966392283048599</v>
       </c>
       <c r="N5">
-        <v>11.64919419472057</v>
+        <v>16.93663625174448</v>
       </c>
       <c r="O5">
-        <v>10.97417185145592</v>
+        <v>17.87658056519112</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.22789281191433</v>
+        <v>7.248960026703576</v>
       </c>
       <c r="C6">
-        <v>6.58386491940637</v>
+        <v>5.534843750826802</v>
       </c>
       <c r="D6">
-        <v>4.934982356296269</v>
+        <v>4.212411648058549</v>
       </c>
       <c r="F6">
-        <v>13.11468735282056</v>
+        <v>19.70052782530942</v>
       </c>
       <c r="G6">
-        <v>14.29110472109667</v>
+        <v>20.77440087417853</v>
       </c>
       <c r="H6">
-        <v>7.391029933604712</v>
+        <v>12.46558858954096</v>
       </c>
       <c r="I6">
-        <v>10.78566873024073</v>
+        <v>17.62625427810901</v>
       </c>
       <c r="K6">
-        <v>10.3549133229827</v>
+        <v>7.954625144005741</v>
       </c>
       <c r="N6">
-        <v>11.65346683185959</v>
+        <v>16.93834190765768</v>
       </c>
       <c r="O6">
-        <v>10.9797548366854</v>
+        <v>17.88016293108266</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.46715672865162</v>
+        <v>7.355186781622431</v>
       </c>
       <c r="C7">
-        <v>6.678136768382401</v>
+        <v>5.573004910817899</v>
       </c>
       <c r="D7">
-        <v>5.021349131989626</v>
+        <v>4.248655240552278</v>
       </c>
       <c r="F7">
-        <v>13.14304891794559</v>
+        <v>19.68088942536939</v>
       </c>
       <c r="G7">
-        <v>14.28755722304417</v>
+        <v>20.74075312953896</v>
       </c>
       <c r="H7">
-        <v>7.363670061771836</v>
+        <v>12.45196818893488</v>
       </c>
       <c r="I7">
-        <v>10.72250064455472</v>
+        <v>17.5994407729539</v>
       </c>
       <c r="K7">
-        <v>10.53544182257032</v>
+        <v>8.035810376965575</v>
       </c>
       <c r="N7">
-        <v>11.62406145240432</v>
+        <v>16.92663228856648</v>
       </c>
       <c r="O7">
-        <v>10.94173486560845</v>
+        <v>17.85560755164114</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.46496425345355</v>
+        <v>7.8070951573112</v>
       </c>
       <c r="C8">
-        <v>7.077748647447001</v>
+        <v>5.737063240161848</v>
       </c>
       <c r="D8">
-        <v>5.38414451547272</v>
+        <v>4.4031279939298</v>
       </c>
       <c r="F8">
-        <v>13.29513803683685</v>
+        <v>19.60558956129119</v>
       </c>
       <c r="G8">
-        <v>14.31597017025043</v>
+        <v>20.6077373810518</v>
       </c>
       <c r="H8">
-        <v>7.250771971320546</v>
+        <v>12.39560390291545</v>
       </c>
       <c r="I8">
-        <v>10.4573819706332</v>
+        <v>17.48782092060422</v>
       </c>
       <c r="K8">
-        <v>11.29445646872325</v>
+        <v>8.381420250194797</v>
       </c>
       <c r="N8">
-        <v>11.50056983024828</v>
+        <v>16.87815983253931</v>
       </c>
       <c r="O8">
-        <v>10.79265782864288</v>
+        <v>17.75492786185322</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.2110004209972</v>
+        <v>8.625665451152484</v>
       </c>
       <c r="C9">
-        <v>7.798195025303239</v>
+        <v>6.041279496743508</v>
       </c>
       <c r="D9">
-        <v>6.027389566850664</v>
+        <v>4.684817473937795</v>
       </c>
       <c r="F9">
-        <v>13.69290305850815</v>
+        <v>19.49893733558453</v>
       </c>
       <c r="G9">
-        <v>14.54255291478428</v>
+        <v>20.40300991427211</v>
       </c>
       <c r="H9">
-        <v>7.059028189493567</v>
+        <v>12.29848085032435</v>
       </c>
       <c r="I9">
-        <v>9.98891322842532</v>
+        <v>17.29295896800454</v>
       </c>
       <c r="K9">
-        <v>12.64226975857288</v>
+        <v>9.009689021154019</v>
       </c>
       <c r="N9">
-        <v>11.28143507519487</v>
+        <v>16.79455876525473</v>
       </c>
       <c r="O9">
-        <v>10.57340054681765</v>
+        <v>17.58512028192538</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.36455690754281</v>
+        <v>9.180863060964782</v>
       </c>
       <c r="C10">
-        <v>8.286057213196242</v>
+        <v>6.25257714085989</v>
       </c>
       <c r="D10">
-        <v>6.456962923166365</v>
+        <v>4.877592974897566</v>
       </c>
       <c r="F10">
-        <v>14.04728127975362</v>
+        <v>19.44572182454</v>
       </c>
       <c r="G10">
-        <v>14.82273715132499</v>
+        <v>20.28727132525483</v>
       </c>
       <c r="H10">
-        <v>6.937767117716757</v>
+        <v>12.23526633895243</v>
       </c>
       <c r="I10">
-        <v>9.678797051970692</v>
+        <v>17.1643778042528</v>
       </c>
       <c r="K10">
-        <v>13.5434384625031</v>
+        <v>9.438080004748912</v>
       </c>
       <c r="N10">
-        <v>11.13500780967651</v>
+        <v>16.74007623699762</v>
       </c>
       <c r="O10">
-        <v>10.46262085655424</v>
+        <v>17.47723018376691</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.86126942108422</v>
+        <v>9.422596955943611</v>
       </c>
       <c r="C11">
-        <v>8.49854563488098</v>
+        <v>6.345760641056568</v>
       </c>
       <c r="D11">
-        <v>6.642850668818542</v>
+        <v>4.961988905182224</v>
       </c>
       <c r="F11">
-        <v>14.22209255684037</v>
+        <v>19.42699485782058</v>
       </c>
       <c r="G11">
-        <v>14.97645980554339</v>
+        <v>20.24224058338872</v>
       </c>
       <c r="H11">
-        <v>6.887236309588292</v>
+        <v>12.20826980949962</v>
       </c>
       <c r="I11">
-        <v>9.545830688067912</v>
+        <v>17.10903698996748</v>
       </c>
       <c r="K11">
-        <v>13.93360898645668</v>
+        <v>9.625226660831727</v>
       </c>
       <c r="N11">
-        <v>11.07169132507663</v>
+        <v>16.7167885128073</v>
       </c>
       <c r="O11">
-        <v>10.42445800172095</v>
+        <v>17.43181685799047</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.04533516299421</v>
+        <v>9.512524568908999</v>
       </c>
       <c r="C12">
-        <v>8.577622931784239</v>
+        <v>6.380602639091205</v>
       </c>
       <c r="D12">
-        <v>6.711860553070741</v>
+        <v>4.993456838343261</v>
       </c>
       <c r="F12">
-        <v>14.29023992007432</v>
+        <v>19.42069283320215</v>
       </c>
       <c r="G12">
-        <v>15.03854178167303</v>
+        <v>20.22629127962427</v>
       </c>
       <c r="H12">
-        <v>6.868802067533341</v>
+        <v>12.19829956980279</v>
       </c>
       <c r="I12">
-        <v>9.496715795449017</v>
+        <v>17.08853319409509</v>
       </c>
       <c r="K12">
-        <v>14.0784873288678</v>
+        <v>9.694944921778491</v>
       </c>
       <c r="N12">
-        <v>11.04820137374197</v>
+        <v>16.70818460889065</v>
       </c>
       <c r="O12">
-        <v>10.41187786835095</v>
+        <v>17.41514784834153</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.00587235659262</v>
+        <v>9.493229510054141</v>
       </c>
       <c r="C13">
-        <v>8.560654336618386</v>
+        <v>6.373118899433448</v>
       </c>
       <c r="D13">
-        <v>6.697059644120943</v>
+        <v>4.986701739000083</v>
       </c>
       <c r="F13">
-        <v>14.27547660917715</v>
+        <v>19.4220149586309</v>
       </c>
       <c r="G13">
-        <v>15.02499794572857</v>
+        <v>20.22967708739808</v>
       </c>
       <c r="H13">
-        <v>6.872740467608998</v>
+        <v>12.20043560295971</v>
       </c>
       <c r="I13">
-        <v>9.507237345334547</v>
+        <v>17.09292893440688</v>
       </c>
       <c r="K13">
-        <v>14.04741320736613</v>
+        <v>9.679981562464771</v>
       </c>
       <c r="N13">
-        <v>11.05323849315304</v>
+        <v>16.71002807572301</v>
       </c>
       <c r="O13">
-        <v>10.41450217930124</v>
+        <v>17.41871432056032</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.87649331411228</v>
+        <v>9.430027939030508</v>
       </c>
       <c r="C14">
-        <v>8.505079326625282</v>
+        <v>6.348636144271155</v>
       </c>
       <c r="D14">
-        <v>6.648555900991067</v>
+        <v>4.96458772009764</v>
       </c>
       <c r="F14">
-        <v>14.22766005940591</v>
+        <v>19.42646055827181</v>
       </c>
       <c r="G14">
-        <v>14.98148930746239</v>
+        <v>20.24090628185083</v>
       </c>
       <c r="H14">
-        <v>6.885705462712274</v>
+        <v>12.20744448807112</v>
       </c>
       <c r="I14">
-        <v>9.541764756053475</v>
+        <v>17.10734106347749</v>
       </c>
       <c r="K14">
-        <v>13.94558587489436</v>
+        <v>9.63098567820221</v>
       </c>
       <c r="N14">
-        <v>11.06974896160218</v>
+        <v>16.71607636570746</v>
       </c>
       <c r="O14">
-        <v>10.42338486935024</v>
+        <v>17.43043490135415</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79672050369394</v>
+        <v>9.391103779863236</v>
       </c>
       <c r="C15">
-        <v>8.470856564356597</v>
+        <v>6.333581223190541</v>
       </c>
       <c r="D15">
-        <v>6.618665722386901</v>
+        <v>4.95097784094301</v>
       </c>
       <c r="F15">
-        <v>14.19862469786594</v>
+        <v>19.42928646058457</v>
       </c>
       <c r="G15">
-        <v>14.9553454253925</v>
+        <v>20.24792831927191</v>
       </c>
       <c r="H15">
-        <v>6.893739220375891</v>
+        <v>12.21177053964566</v>
       </c>
       <c r="I15">
-        <v>9.563077085407446</v>
+        <v>17.11622782941692</v>
       </c>
       <c r="K15">
-        <v>13.88283917355408</v>
+        <v>9.600823442126396</v>
       </c>
       <c r="N15">
-        <v>11.07992587804707</v>
+        <v>16.71980905539343</v>
       </c>
       <c r="O15">
-        <v>10.4290728566073</v>
+        <v>17.43768288483606</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.33153148345768</v>
+        <v>9.16484241183629</v>
       </c>
       <c r="C16">
-        <v>8.271977914158086</v>
+        <v>6.246426340050403</v>
       </c>
       <c r="D16">
-        <v>6.44462192025734</v>
+        <v>4.872009664494907</v>
       </c>
       <c r="F16">
-        <v>14.0361303470555</v>
+        <v>19.44705608922317</v>
       </c>
       <c r="G16">
-        <v>14.81322810854102</v>
+        <v>20.29036813678229</v>
       </c>
       <c r="H16">
-        <v>6.94116552559449</v>
+        <v>12.2370660137657</v>
       </c>
       <c r="I16">
-        <v>9.687655702353956</v>
+        <v>17.1680578189379</v>
       </c>
       <c r="K16">
-        <v>13.51753945937361</v>
+        <v>9.42569057721636</v>
       </c>
       <c r="N16">
-        <v>11.13921305510027</v>
+        <v>16.74162821245749</v>
       </c>
       <c r="O16">
-        <v>10.46537056510617</v>
+        <v>17.48027189766585</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.03897133546191</v>
+        <v>9.023223228350519</v>
       </c>
       <c r="C17">
-        <v>8.147530790290769</v>
+        <v>6.192191044424479</v>
       </c>
       <c r="D17">
-        <v>6.335401976469559</v>
+        <v>4.822708007057601</v>
       </c>
       <c r="F17">
-        <v>13.93992765201275</v>
+        <v>19.45936206374698</v>
       </c>
       <c r="G17">
-        <v>14.73284540513221</v>
+        <v>20.31836034946156</v>
       </c>
       <c r="H17">
-        <v>6.971470095258884</v>
+        <v>12.2530345211054</v>
       </c>
       <c r="I17">
-        <v>9.766204680354232</v>
+        <v>17.20066055160516</v>
       </c>
       <c r="K17">
-        <v>13.28835292992924</v>
+        <v>9.316243394330561</v>
       </c>
       <c r="N17">
-        <v>11.17643633910263</v>
+        <v>16.75539648149916</v>
       </c>
       <c r="O17">
-        <v>10.49084989621145</v>
+        <v>17.50733850451699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.86805801200357</v>
+        <v>8.940751066146028</v>
       </c>
       <c r="C18">
-        <v>8.075064674655405</v>
+        <v>6.160721122429552</v>
       </c>
       <c r="D18">
-        <v>6.271685246977821</v>
+        <v>4.794041398750956</v>
       </c>
       <c r="F18">
-        <v>13.88587567425464</v>
+        <v>19.46695598344815</v>
       </c>
       <c r="G18">
-        <v>14.68907960672292</v>
+        <v>20.3351774918209</v>
       </c>
       <c r="H18">
-        <v>6.989334182913512</v>
+        <v>12.26238486951252</v>
       </c>
       <c r="I18">
-        <v>9.812142299678502</v>
+        <v>17.21970943960008</v>
       </c>
       <c r="K18">
-        <v>13.15467055545455</v>
+        <v>9.252566623794452</v>
       </c>
       <c r="N18">
-        <v>11.19815539058831</v>
+        <v>16.7634565306568</v>
       </c>
       <c r="O18">
-        <v>10.50664928873328</v>
+        <v>17.52325155293876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.80973614334482</v>
+        <v>8.912654628491683</v>
       </c>
       <c r="C19">
-        <v>8.050377481496565</v>
+        <v>6.150019386389004</v>
       </c>
       <c r="D19">
-        <v>6.249958333589292</v>
+        <v>4.784282738953192</v>
       </c>
       <c r="F19">
-        <v>13.86779471323555</v>
+        <v>19.4696157052156</v>
       </c>
       <c r="G19">
-        <v>14.67468191810082</v>
+        <v>20.3409943650062</v>
       </c>
       <c r="H19">
-        <v>6.99545613113846</v>
+        <v>12.26557920385862</v>
       </c>
       <c r="I19">
-        <v>9.827824216720465</v>
+        <v>17.22621003595044</v>
       </c>
       <c r="K19">
-        <v>13.10908944815334</v>
+        <v>9.230883381894527</v>
       </c>
       <c r="N19">
-        <v>11.20556181866749</v>
+        <v>16.76620974276416</v>
       </c>
       <c r="O19">
-        <v>10.51219185524324</v>
+        <v>17.52869867641556</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.070388124245</v>
+        <v>9.038404465860211</v>
       </c>
       <c r="C20">
-        <v>8.160870477807359</v>
+        <v>6.197993134706245</v>
       </c>
       <c r="D20">
-        <v>6.347121486781611</v>
+        <v>4.827988420913701</v>
       </c>
       <c r="F20">
-        <v>13.95003600501423</v>
+        <v>19.45799867260799</v>
       </c>
       <c r="G20">
-        <v>14.74114607441278</v>
+        <v>20.31530629484912</v>
       </c>
       <c r="H20">
-        <v>6.96819899297591</v>
+        <v>12.25131750089847</v>
       </c>
       <c r="I20">
-        <v>9.757764039066929</v>
+        <v>17.19715923646575</v>
       </c>
       <c r="K20">
-        <v>13.31294298833645</v>
+        <v>9.327969628763048</v>
       </c>
       <c r="N20">
-        <v>11.17244176557793</v>
+        <v>16.75391624674802</v>
       </c>
       <c r="O20">
-        <v>10.48801833571223</v>
+        <v>17.50442150063409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.91460434710146</v>
+        <v>9.448635907657996</v>
       </c>
       <c r="C21">
-        <v>8.521440915796919</v>
+        <v>6.355839557074441</v>
       </c>
       <c r="D21">
-        <v>6.662840203132965</v>
+        <v>4.971096592570325</v>
       </c>
       <c r="F21">
-        <v>14.24165209845949</v>
+        <v>19.42513334351521</v>
       </c>
       <c r="G21">
-        <v>14.99416317990224</v>
+        <v>20.23757800862395</v>
       </c>
       <c r="H21">
-        <v>6.881878023331339</v>
+        <v>12.20537895139613</v>
       </c>
       <c r="I21">
-        <v>9.531589048987678</v>
+        <v>17.10309559380503</v>
       </c>
       <c r="K21">
-        <v>13.97557311743207</v>
+        <v>9.645408454743555</v>
       </c>
       <c r="N21">
-        <v>11.06488612061783</v>
+        <v>16.71429401518428</v>
       </c>
       <c r="O21">
-        <v>10.42072411146881</v>
+        <v>17.42697794558183</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.44287267637818</v>
+        <v>9.707331845569863</v>
       </c>
       <c r="C22">
-        <v>8.748997741079798</v>
+        <v>6.45640092929954</v>
       </c>
       <c r="D22">
-        <v>6.861123552072977</v>
+        <v>5.061757741909593</v>
       </c>
       <c r="F22">
-        <v>14.4435990246682</v>
+        <v>19.40825590566094</v>
       </c>
       <c r="G22">
-        <v>15.18211109260521</v>
+        <v>20.19320942598469</v>
       </c>
       <c r="H22">
-        <v>6.829564404081504</v>
+        <v>12.17682858559439</v>
       </c>
       <c r="I22">
-        <v>9.391017834919282</v>
+        <v>17.0442572340542</v>
       </c>
       <c r="K22">
-        <v>14.39190020527165</v>
+        <v>9.846154637983316</v>
       </c>
       <c r="N22">
-        <v>10.99743560454525</v>
+        <v>16.68964949716409</v>
       </c>
       <c r="O22">
-        <v>10.38770481667443</v>
+        <v>17.37944225664295</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.16307122187742</v>
+        <v>9.570138188409134</v>
       </c>
       <c r="C23">
-        <v>8.628295503656643</v>
+        <v>6.40297426679811</v>
       </c>
       <c r="D23">
-        <v>6.75603621362858</v>
+        <v>5.01363769378727</v>
       </c>
       <c r="F23">
-        <v>14.33478068302822</v>
+        <v>19.41684230861556</v>
       </c>
       <c r="G23">
-        <v>15.07970849956152</v>
+        <v>20.21629903761312</v>
       </c>
       <c r="H23">
-        <v>6.857097659466399</v>
+        <v>12.19193176931672</v>
       </c>
       <c r="I23">
-        <v>9.465354441619869</v>
+        <v>17.0754192157368</v>
       </c>
       <c r="K23">
-        <v>14.1712371764997</v>
+        <v>9.739638900021234</v>
       </c>
       <c r="N23">
-        <v>11.0331704565951</v>
+        <v>16.702688466495</v>
       </c>
       <c r="O23">
-        <v>10.40428705438761</v>
+        <v>17.40453102874744</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05619305591643</v>
+        <v>9.031544305269195</v>
       </c>
       <c r="C24">
-        <v>8.154842467760083</v>
+        <v>6.195370909187081</v>
       </c>
       <c r="D24">
-        <v>6.341825975564904</v>
+        <v>4.82560214882774</v>
       </c>
       <c r="F24">
-        <v>13.94546210536718</v>
+        <v>19.45861344506853</v>
       </c>
       <c r="G24">
-        <v>14.73738572646395</v>
+        <v>20.31668477817413</v>
       </c>
       <c r="H24">
-        <v>6.969676485465208</v>
+        <v>12.25209323667173</v>
       </c>
       <c r="I24">
-        <v>9.761577632554104</v>
+        <v>17.19874123050838</v>
       </c>
       <c r="K24">
-        <v>13.30183180111789</v>
+        <v>9.322670544162975</v>
       </c>
       <c r="N24">
-        <v>11.17424671996372</v>
+        <v>16.75458501077099</v>
       </c>
       <c r="O24">
-        <v>10.4892949076387</v>
+        <v>17.50573918141041</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.76132509325516</v>
+        <v>8.412024277236705</v>
       </c>
       <c r="C25">
-        <v>7.610395824151153</v>
+        <v>5.961020664294655</v>
       </c>
       <c r="D25">
-        <v>5.860847227319173</v>
+        <v>4.611021469501335</v>
       </c>
       <c r="F25">
-        <v>13.57445004239674</v>
+        <v>19.52338318624341</v>
       </c>
       <c r="G25">
-        <v>14.46189533942819</v>
+        <v>20.45233719800569</v>
       </c>
       <c r="H25">
-        <v>7.107574813756474</v>
+        <v>12.32332318958954</v>
       </c>
       <c r="I25">
-        <v>10.10988244545153</v>
+        <v>17.34310885345517</v>
       </c>
       <c r="K25">
-        <v>12.29310157146356</v>
+        <v>8.845357879117593</v>
       </c>
       <c r="N25">
-        <v>11.33819973972677</v>
+        <v>16.81595340958717</v>
       </c>
       <c r="O25">
-        <v>10.62431169493275</v>
+        <v>17.62809759770606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.925179770859371</v>
+        <v>12.72111714257074</v>
       </c>
       <c r="C2">
-        <v>5.780391821375774</v>
+        <v>7.18187650489918</v>
       </c>
       <c r="D2">
-        <v>4.443596211984586</v>
+        <v>5.477896693813811</v>
       </c>
       <c r="F2">
-        <v>19.58795638235258</v>
+        <v>13.34300185896212</v>
       </c>
       <c r="G2">
-        <v>20.57547636414088</v>
+        <v>14.33482931558193</v>
       </c>
       <c r="H2">
-        <v>12.38124052643509</v>
+        <v>7.222136124353738</v>
       </c>
       <c r="I2">
-        <v>17.45920573582139</v>
+        <v>10.38894024459513</v>
       </c>
       <c r="K2">
-        <v>8.471841746582419</v>
+        <v>11.49075266639117</v>
       </c>
       <c r="N2">
-        <v>16.86580294599075</v>
+        <v>11.46865072421846</v>
       </c>
       <c r="O2">
-        <v>17.72951726136178</v>
+        <v>10.75700623989254</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.577721788249709</v>
+        <v>11.96226205474925</v>
       </c>
       <c r="C3">
-        <v>5.653444319448128</v>
+        <v>6.875173534411487</v>
       </c>
       <c r="D3">
-        <v>4.324653435168544</v>
+        <v>5.200863529865803</v>
       </c>
       <c r="F3">
-        <v>19.64220381829719</v>
+        <v>13.21168716977341</v>
       </c>
       <c r="G3">
-        <v>20.67328514877434</v>
+        <v>14.29281891710116</v>
       </c>
       <c r="H3">
-        <v>12.42391561314609</v>
+        <v>7.307396416125653</v>
       </c>
       <c r="I3">
-        <v>17.54402064359958</v>
+        <v>10.59127083398874</v>
       </c>
       <c r="K3">
-        <v>8.205932179077227</v>
+        <v>10.91088148910046</v>
       </c>
       <c r="N3">
-        <v>16.90251082953466</v>
+        <v>11.5629573068238</v>
       </c>
       <c r="O3">
-        <v>17.80530891082829</v>
+        <v>10.86579663732505</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.356420937903089</v>
+        <v>11.46992481489639</v>
       </c>
       <c r="C4">
-        <v>5.573449165194751</v>
+        <v>6.679231136969903</v>
       </c>
       <c r="D4">
-        <v>4.249076428820368</v>
+        <v>5.022349842084827</v>
       </c>
       <c r="F4">
-        <v>19.6806658384917</v>
+        <v>13.14339535210467</v>
       </c>
       <c r="G4">
-        <v>20.74036784554328</v>
+        <v>14.28753917520488</v>
       </c>
       <c r="H4">
-        <v>12.45181086161699</v>
+        <v>7.363354140678021</v>
       </c>
       <c r="I4">
-        <v>17.59913069306899</v>
+        <v>10.72176885792257</v>
       </c>
       <c r="K4">
-        <v>8.036753638461693</v>
+        <v>10.53753396289115</v>
       </c>
       <c r="N4">
-        <v>16.92649702482272</v>
+        <v>11.62372078225596</v>
       </c>
       <c r="O4">
-        <v>17.85532442378621</v>
+        <v>10.94129995128891</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.264357016370989</v>
+        <v>11.26269917222745</v>
       </c>
       <c r="C5">
-        <v>5.540365615358892</v>
+        <v>6.597538876245318</v>
       </c>
       <c r="D5">
-        <v>4.217663963746512</v>
+        <v>4.947530009870382</v>
       </c>
       <c r="F5">
-        <v>19.69763251308434</v>
+        <v>13.11861874787326</v>
       </c>
       <c r="G5">
-        <v>20.76946356024395</v>
+        <v>14.2903454411569</v>
       </c>
       <c r="H5">
-        <v>12.46360451203502</v>
+        <v>7.387043420123189</v>
       </c>
       <c r="I5">
-        <v>17.62235220767446</v>
+        <v>10.77649007646915</v>
       </c>
       <c r="K5">
-        <v>7.966392283048599</v>
+        <v>10.38113675534444</v>
       </c>
       <c r="N5">
-        <v>16.93663625174448</v>
+        <v>11.64919419472057</v>
       </c>
       <c r="O5">
-        <v>17.87658056519112</v>
+        <v>10.97417185145586</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.248960026703576</v>
+        <v>11.22789281191429</v>
       </c>
       <c r="C6">
-        <v>5.534843750826802</v>
+        <v>6.583864919406356</v>
       </c>
       <c r="D6">
-        <v>4.212411648058549</v>
+        <v>4.934982356296359</v>
       </c>
       <c r="F6">
-        <v>19.70052782530942</v>
+        <v>13.11468735282053</v>
       </c>
       <c r="G6">
-        <v>20.77440087417853</v>
+        <v>14.2911047210968</v>
       </c>
       <c r="H6">
-        <v>12.46558858954096</v>
+        <v>7.391029933604658</v>
       </c>
       <c r="I6">
-        <v>17.62625427810901</v>
+        <v>10.78566873024074</v>
       </c>
       <c r="K6">
-        <v>7.954625144005741</v>
+        <v>10.35491332298265</v>
       </c>
       <c r="N6">
-        <v>16.93834190765768</v>
+        <v>11.65346683185955</v>
       </c>
       <c r="O6">
-        <v>17.88016293108266</v>
+        <v>10.97975483668541</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.355186781622431</v>
+        <v>11.46715672865162</v>
       </c>
       <c r="C7">
-        <v>5.573004910817899</v>
+        <v>6.678136768382413</v>
       </c>
       <c r="D7">
-        <v>4.248655240552278</v>
+        <v>5.021349131989667</v>
       </c>
       <c r="F7">
-        <v>19.68088942536939</v>
+        <v>13.1430489179455</v>
       </c>
       <c r="G7">
-        <v>20.74075312953896</v>
+        <v>14.28755722304407</v>
       </c>
       <c r="H7">
-        <v>12.45196818893488</v>
+        <v>7.363670061771836</v>
       </c>
       <c r="I7">
-        <v>17.5994407729539</v>
+        <v>10.72250064455466</v>
       </c>
       <c r="K7">
-        <v>8.035810376965575</v>
+        <v>10.53544182257031</v>
       </c>
       <c r="N7">
-        <v>16.92663228856648</v>
+        <v>11.62406145240429</v>
       </c>
       <c r="O7">
-        <v>17.85560755164114</v>
+        <v>10.94173486560839</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.8070951573112</v>
+        <v>12.46496425345356</v>
       </c>
       <c r="C8">
-        <v>5.737063240161848</v>
+        <v>7.077748647447074</v>
       </c>
       <c r="D8">
-        <v>4.4031279939298</v>
+        <v>5.384144515472805</v>
       </c>
       <c r="F8">
-        <v>19.60558956129119</v>
+        <v>13.29513803683672</v>
       </c>
       <c r="G8">
-        <v>20.6077373810518</v>
+        <v>14.31597017025025</v>
       </c>
       <c r="H8">
-        <v>12.39560390291545</v>
+        <v>7.250771971320551</v>
       </c>
       <c r="I8">
-        <v>17.48782092060422</v>
+        <v>10.45738197063312</v>
       </c>
       <c r="K8">
-        <v>8.381420250194797</v>
+        <v>11.29445646872322</v>
       </c>
       <c r="N8">
-        <v>16.87815983253931</v>
+        <v>11.50056983024821</v>
       </c>
       <c r="O8">
-        <v>17.75492786185322</v>
+        <v>10.7926578286428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.625665451152484</v>
+        <v>14.21100042099722</v>
       </c>
       <c r="C9">
-        <v>6.041279496743508</v>
+        <v>7.798195025303147</v>
       </c>
       <c r="D9">
-        <v>4.684817473937795</v>
+        <v>6.027389566850728</v>
       </c>
       <c r="F9">
-        <v>19.49893733558453</v>
+        <v>13.69290305850822</v>
       </c>
       <c r="G9">
-        <v>20.40300991427211</v>
+        <v>14.5425529147843</v>
       </c>
       <c r="H9">
-        <v>12.29848085032435</v>
+        <v>7.059028189493633</v>
       </c>
       <c r="I9">
-        <v>17.29295896800454</v>
+        <v>9.988913228425393</v>
       </c>
       <c r="K9">
-        <v>9.009689021154019</v>
+        <v>12.64226975857284</v>
       </c>
       <c r="N9">
-        <v>16.79455876525473</v>
+        <v>11.28143507519489</v>
       </c>
       <c r="O9">
-        <v>17.58512028192538</v>
+        <v>10.57340054681777</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.180863060964782</v>
+        <v>15.3645569075428</v>
       </c>
       <c r="C10">
-        <v>6.25257714085989</v>
+        <v>8.286057213196125</v>
       </c>
       <c r="D10">
-        <v>4.877592974897566</v>
+        <v>6.456962923166443</v>
       </c>
       <c r="F10">
-        <v>19.44572182454</v>
+        <v>14.04728127975366</v>
       </c>
       <c r="G10">
-        <v>20.28727132525483</v>
+        <v>14.82273715132525</v>
       </c>
       <c r="H10">
-        <v>12.23526633895243</v>
+        <v>6.937767117716762</v>
       </c>
       <c r="I10">
-        <v>17.1643778042528</v>
+        <v>9.678797051970736</v>
       </c>
       <c r="K10">
-        <v>9.438080004748912</v>
+        <v>13.54343846250307</v>
       </c>
       <c r="N10">
-        <v>16.74007623699762</v>
+        <v>11.1350078096765</v>
       </c>
       <c r="O10">
-        <v>17.47723018376691</v>
+        <v>10.46262085655428</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.422596955943611</v>
+        <v>15.86126942108424</v>
       </c>
       <c r="C11">
-        <v>6.345760641056568</v>
+        <v>8.498545634881012</v>
       </c>
       <c r="D11">
-        <v>4.961988905182224</v>
+        <v>6.642850668818494</v>
       </c>
       <c r="F11">
-        <v>19.42699485782058</v>
+        <v>14.22209255684039</v>
       </c>
       <c r="G11">
-        <v>20.24224058338872</v>
+        <v>14.97645980554342</v>
       </c>
       <c r="H11">
-        <v>12.20826980949962</v>
+        <v>6.887236309588303</v>
       </c>
       <c r="I11">
-        <v>17.10903698996748</v>
+        <v>9.545830688068023</v>
       </c>
       <c r="K11">
-        <v>9.625226660831727</v>
+        <v>13.9336089864567</v>
       </c>
       <c r="N11">
-        <v>16.7167885128073</v>
+        <v>11.07169132507665</v>
       </c>
       <c r="O11">
-        <v>17.43181685799047</v>
+        <v>10.42445800172099</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.512524568908999</v>
+        <v>16.04533516299421</v>
       </c>
       <c r="C12">
-        <v>6.380602639091205</v>
+        <v>8.577622931784063</v>
       </c>
       <c r="D12">
-        <v>4.993456838343261</v>
+        <v>6.711860553070857</v>
       </c>
       <c r="F12">
-        <v>19.42069283320215</v>
+        <v>14.29023992007429</v>
       </c>
       <c r="G12">
-        <v>20.22629127962427</v>
+        <v>15.03854178167303</v>
       </c>
       <c r="H12">
-        <v>12.19829956980279</v>
+        <v>6.868802067533351</v>
       </c>
       <c r="I12">
-        <v>17.08853319409509</v>
+        <v>9.496715795448949</v>
       </c>
       <c r="K12">
-        <v>9.694944921778491</v>
+        <v>14.07848732886779</v>
       </c>
       <c r="N12">
-        <v>16.70818460889065</v>
+        <v>11.04820137374193</v>
       </c>
       <c r="O12">
-        <v>17.41514784834153</v>
+        <v>10.41187786835093</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.493229510054141</v>
+        <v>16.0058723565926</v>
       </c>
       <c r="C13">
-        <v>6.373118899433448</v>
+        <v>8.560654336618311</v>
       </c>
       <c r="D13">
-        <v>4.986701739000083</v>
+        <v>6.697059644120951</v>
       </c>
       <c r="F13">
-        <v>19.4220149586309</v>
+        <v>14.27547660917712</v>
       </c>
       <c r="G13">
-        <v>20.22967708739808</v>
+        <v>15.02499794572851</v>
       </c>
       <c r="H13">
-        <v>12.20043560295971</v>
+        <v>6.872740467608994</v>
       </c>
       <c r="I13">
-        <v>17.09292893440688</v>
+        <v>9.507237345334458</v>
       </c>
       <c r="K13">
-        <v>9.679981562464771</v>
+        <v>14.04741320736608</v>
       </c>
       <c r="N13">
-        <v>16.71002807572301</v>
+        <v>11.05323849315298</v>
       </c>
       <c r="O13">
-        <v>17.41871432056032</v>
+        <v>10.41450217930118</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.430027939030508</v>
+        <v>15.8764933141124</v>
       </c>
       <c r="C14">
-        <v>6.348636144271155</v>
+        <v>8.505079326624962</v>
       </c>
       <c r="D14">
-        <v>4.96458772009764</v>
+        <v>6.648555900991193</v>
       </c>
       <c r="F14">
-        <v>19.42646055827181</v>
+        <v>14.22766005940586</v>
       </c>
       <c r="G14">
-        <v>20.24090628185083</v>
+        <v>14.98148930746246</v>
       </c>
       <c r="H14">
-        <v>12.20744448807112</v>
+        <v>6.885705462712162</v>
       </c>
       <c r="I14">
-        <v>17.10734106347749</v>
+        <v>9.541764756053336</v>
       </c>
       <c r="K14">
-        <v>9.63098567820221</v>
+        <v>13.94558587489431</v>
       </c>
       <c r="N14">
-        <v>16.71607636570746</v>
+        <v>11.06974896160215</v>
       </c>
       <c r="O14">
-        <v>17.43043490135415</v>
+        <v>10.42338486935024</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.391103779863236</v>
+        <v>15.79672050369403</v>
       </c>
       <c r="C15">
-        <v>6.333581223190541</v>
+        <v>8.470856564356462</v>
       </c>
       <c r="D15">
-        <v>4.95097784094301</v>
+        <v>6.618665722387066</v>
       </c>
       <c r="F15">
-        <v>19.42928646058457</v>
+        <v>14.19862469786582</v>
       </c>
       <c r="G15">
-        <v>20.24792831927191</v>
+        <v>14.95534542539247</v>
       </c>
       <c r="H15">
-        <v>12.21177053964566</v>
+        <v>6.893739220375849</v>
       </c>
       <c r="I15">
-        <v>17.11622782941692</v>
+        <v>9.563077085407377</v>
       </c>
       <c r="K15">
-        <v>9.600823442126396</v>
+        <v>13.88283917355415</v>
       </c>
       <c r="N15">
-        <v>16.71980905539343</v>
+        <v>11.07992587804706</v>
       </c>
       <c r="O15">
-        <v>17.43768288483606</v>
+        <v>10.42907285660725</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.16484241183629</v>
+        <v>15.3315314834577</v>
       </c>
       <c r="C16">
-        <v>6.246426340050403</v>
+        <v>8.271977914157997</v>
       </c>
       <c r="D16">
-        <v>4.872009664494907</v>
+        <v>6.444621920257402</v>
       </c>
       <c r="F16">
-        <v>19.44705608922317</v>
+        <v>14.03613034705539</v>
       </c>
       <c r="G16">
-        <v>20.29036813678229</v>
+        <v>14.81322810854091</v>
       </c>
       <c r="H16">
-        <v>12.2370660137657</v>
+        <v>6.941165525594435</v>
       </c>
       <c r="I16">
-        <v>17.1680578189379</v>
+        <v>9.687655702353815</v>
       </c>
       <c r="K16">
-        <v>9.42569057721636</v>
+        <v>13.51753945937366</v>
       </c>
       <c r="N16">
-        <v>16.74162821245749</v>
+        <v>11.13921305510021</v>
       </c>
       <c r="O16">
-        <v>17.48027189766585</v>
+        <v>10.46537056510606</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.023223228350519</v>
+        <v>15.03897133546193</v>
       </c>
       <c r="C17">
-        <v>6.192191044424479</v>
+        <v>8.147530790290663</v>
       </c>
       <c r="D17">
-        <v>4.822708007057601</v>
+        <v>6.335401976469601</v>
       </c>
       <c r="F17">
-        <v>19.45936206374698</v>
+        <v>13.93992765201262</v>
       </c>
       <c r="G17">
-        <v>20.31836034946156</v>
+        <v>14.73284540513201</v>
       </c>
       <c r="H17">
-        <v>12.2530345211054</v>
+        <v>6.971470095258823</v>
       </c>
       <c r="I17">
-        <v>17.20066055160516</v>
+        <v>9.766204680354083</v>
       </c>
       <c r="K17">
-        <v>9.316243394330561</v>
+        <v>13.28835292992928</v>
       </c>
       <c r="N17">
-        <v>16.75539648149916</v>
+        <v>11.17643633910256</v>
       </c>
       <c r="O17">
-        <v>17.50733850451699</v>
+        <v>10.49084989621132</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.940751066146028</v>
+        <v>14.86805801200357</v>
       </c>
       <c r="C18">
-        <v>6.160721122429552</v>
+        <v>8.07506467465539</v>
       </c>
       <c r="D18">
-        <v>4.794041398750956</v>
+        <v>6.271685246977935</v>
       </c>
       <c r="F18">
-        <v>19.46695598344815</v>
+        <v>13.8858756742546</v>
       </c>
       <c r="G18">
-        <v>20.3351774918209</v>
+        <v>14.689079606723</v>
       </c>
       <c r="H18">
-        <v>12.26238486951252</v>
+        <v>6.989334182913462</v>
       </c>
       <c r="I18">
-        <v>17.21970943960008</v>
+        <v>9.812142299678513</v>
       </c>
       <c r="K18">
-        <v>9.252566623794452</v>
+        <v>13.15467055545456</v>
       </c>
       <c r="N18">
-        <v>16.7634565306568</v>
+        <v>11.19815539058831</v>
       </c>
       <c r="O18">
-        <v>17.52325155293876</v>
+        <v>10.50664928873332</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.912654628491683</v>
+        <v>14.80973614334485</v>
       </c>
       <c r="C19">
-        <v>6.150019386389004</v>
+        <v>8.050377481496488</v>
       </c>
       <c r="D19">
-        <v>4.784282738953192</v>
+        <v>6.249958333589285</v>
       </c>
       <c r="F19">
-        <v>19.4696157052156</v>
+        <v>13.8677947132355</v>
       </c>
       <c r="G19">
-        <v>20.3409943650062</v>
+        <v>14.67468191810074</v>
       </c>
       <c r="H19">
-        <v>12.26557920385862</v>
+        <v>6.995456131138453</v>
       </c>
       <c r="I19">
-        <v>17.22621003595044</v>
+        <v>9.827824216720412</v>
       </c>
       <c r="K19">
-        <v>9.230883381894527</v>
+        <v>13.10908944815337</v>
       </c>
       <c r="N19">
-        <v>16.76620974276416</v>
+        <v>11.20556181866742</v>
       </c>
       <c r="O19">
-        <v>17.52869867641556</v>
+        <v>10.51219185524314</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.038404465860211</v>
+        <v>15.07038812424504</v>
       </c>
       <c r="C20">
-        <v>6.197993134706245</v>
+        <v>8.16087047780724</v>
       </c>
       <c r="D20">
-        <v>4.827988420913701</v>
+        <v>6.347121486781611</v>
       </c>
       <c r="F20">
-        <v>19.45799867260799</v>
+        <v>13.95003600501414</v>
       </c>
       <c r="G20">
-        <v>20.31530629484912</v>
+        <v>14.74114607441278</v>
       </c>
       <c r="H20">
-        <v>12.25131750089847</v>
+        <v>6.968198992975856</v>
       </c>
       <c r="I20">
-        <v>17.19715923646575</v>
+        <v>9.757764039066842</v>
       </c>
       <c r="K20">
-        <v>9.327969628763048</v>
+        <v>13.31294298833647</v>
       </c>
       <c r="N20">
-        <v>16.75391624674802</v>
+        <v>11.1724417655779</v>
       </c>
       <c r="O20">
-        <v>17.50442150063409</v>
+        <v>10.48801833571215</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.448635907657996</v>
+        <v>15.91460434710149</v>
       </c>
       <c r="C21">
-        <v>6.355839557074441</v>
+        <v>8.52144091579707</v>
       </c>
       <c r="D21">
-        <v>4.971096592570325</v>
+        <v>6.662840203132937</v>
       </c>
       <c r="F21">
-        <v>19.42513334351521</v>
+        <v>14.24165209845934</v>
       </c>
       <c r="G21">
-        <v>20.23757800862395</v>
+        <v>14.994163179902</v>
       </c>
       <c r="H21">
-        <v>12.20537895139613</v>
+        <v>6.881878023331164</v>
       </c>
       <c r="I21">
-        <v>17.10309559380503</v>
+        <v>9.531589048987502</v>
       </c>
       <c r="K21">
-        <v>9.645408454743555</v>
+        <v>13.97557311743213</v>
       </c>
       <c r="N21">
-        <v>16.71429401518428</v>
+        <v>11.06488612061773</v>
       </c>
       <c r="O21">
-        <v>17.42697794558183</v>
+        <v>10.42072411146862</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.707331845569863</v>
+        <v>16.44287267637828</v>
       </c>
       <c r="C22">
-        <v>6.45640092929954</v>
+        <v>8.748997741079684</v>
       </c>
       <c r="D22">
-        <v>5.061757741909593</v>
+        <v>6.861123552073094</v>
       </c>
       <c r="F22">
-        <v>19.40825590566094</v>
+        <v>14.44359902466818</v>
       </c>
       <c r="G22">
-        <v>20.19320942598469</v>
+        <v>15.1821110926052</v>
       </c>
       <c r="H22">
-        <v>12.17682858559439</v>
+        <v>6.829564404081462</v>
       </c>
       <c r="I22">
-        <v>17.0442572340542</v>
+        <v>9.391017834919241</v>
       </c>
       <c r="K22">
-        <v>9.846154637983316</v>
+        <v>14.39190020527169</v>
       </c>
       <c r="N22">
-        <v>16.68964949716409</v>
+        <v>10.99743560454524</v>
       </c>
       <c r="O22">
-        <v>17.37944225664295</v>
+        <v>10.3877048166744</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.570138188409134</v>
+        <v>16.16307122187751</v>
       </c>
       <c r="C23">
-        <v>6.40297426679811</v>
+        <v>8.628295503656439</v>
       </c>
       <c r="D23">
-        <v>5.01363769378727</v>
+        <v>6.756036213628615</v>
       </c>
       <c r="F23">
-        <v>19.41684230861556</v>
+        <v>14.33478068302822</v>
       </c>
       <c r="G23">
-        <v>20.21629903761312</v>
+        <v>15.07970849956152</v>
       </c>
       <c r="H23">
-        <v>12.19193176931672</v>
+        <v>6.857097659466399</v>
       </c>
       <c r="I23">
-        <v>17.0754192157368</v>
+        <v>9.465354441619796</v>
       </c>
       <c r="K23">
-        <v>9.739638900021234</v>
+        <v>14.17123717649971</v>
       </c>
       <c r="N23">
-        <v>16.702688466495</v>
+        <v>11.0331704565951</v>
       </c>
       <c r="O23">
-        <v>17.40453102874744</v>
+        <v>10.40428705438761</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.031544305269195</v>
+        <v>15.05619305591643</v>
       </c>
       <c r="C24">
-        <v>6.195370909187081</v>
+        <v>8.154842467760146</v>
       </c>
       <c r="D24">
-        <v>4.82560214882774</v>
+        <v>6.341825975564835</v>
       </c>
       <c r="F24">
-        <v>19.45861344506853</v>
+        <v>13.94546210536714</v>
       </c>
       <c r="G24">
-        <v>20.31668477817413</v>
+        <v>14.73738572646389</v>
       </c>
       <c r="H24">
-        <v>12.25209323667173</v>
+        <v>6.969676485465147</v>
       </c>
       <c r="I24">
-        <v>17.19874123050838</v>
+        <v>9.761577632554044</v>
       </c>
       <c r="K24">
-        <v>9.322670544162975</v>
+        <v>13.30183180111791</v>
       </c>
       <c r="N24">
-        <v>16.75458501077099</v>
+        <v>11.17424671996369</v>
       </c>
       <c r="O24">
-        <v>17.50573918141041</v>
+        <v>10.48929490763859</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.412024277236705</v>
+        <v>13.76132509325516</v>
       </c>
       <c r="C25">
-        <v>5.961020664294655</v>
+        <v>7.610395824151153</v>
       </c>
       <c r="D25">
-        <v>4.611021469501335</v>
+        <v>5.860847227319174</v>
       </c>
       <c r="F25">
-        <v>19.52338318624341</v>
+        <v>13.5744500423967</v>
       </c>
       <c r="G25">
-        <v>20.45233719800569</v>
+        <v>14.46189533942819</v>
       </c>
       <c r="H25">
-        <v>12.32332318958954</v>
+        <v>7.107574813756412</v>
       </c>
       <c r="I25">
-        <v>17.34310885345517</v>
+        <v>10.10988244545147</v>
       </c>
       <c r="K25">
-        <v>8.845357879117593</v>
+        <v>12.29310157146358</v>
       </c>
       <c r="N25">
-        <v>16.81595340958717</v>
+        <v>11.33819973972673</v>
       </c>
       <c r="O25">
-        <v>17.62809759770606</v>
+        <v>10.6243116949327</v>
       </c>
     </row>
   </sheetData>
